--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>username</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>9fb2867d1f75c51e868ced7f06a1ea1d</t>
+  </si>
+  <si>
+    <t>57650189a06aaa2be7cd5dde30ba694d</t>
+  </si>
+  <si>
+    <t>771b04972e9b08016afebeebe42f195b</t>
+  </si>
+  <si>
+    <t>fbdf88cf331e676d90634347ed4464cd</t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>username</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>fbdf88cf331e676d90634347ed4464cd</t>
+  </si>
+  <si>
+    <t>d9ed4b5e96dcb5789b39da080addb5a1</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>@cc1234YNU</t>
+  </si>
+  <si>
+    <t>12435</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>24c6f83e749172c580ff5ff8cfe31ccf</t>
+  </si>
+  <si>
+    <t>24d5b9ec1eac55bbbb0f9cc604cc3491</t>
+  </si>
+  <si>
+    <t>1e92bc533e921befb81a7d6ab764ea9a</t>
   </si>
 </sst>
 </file>
@@ -110,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -141,7 +165,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>
@@ -153,6 +177,26 @@
         <v>10</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>1e92bc533e921befb81a7d6ab764ea9a</t>
+  </si>
+  <si>
+    <t>80d1587c9ff23ad863e67bac1923fa9c</t>
+  </si>
+  <si>
+    <t>9cf41a44c4f0631f3422c0a9c9bed659</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>username</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>9cf41a44c4f0631f3422c0a9c9bed659</t>
+  </si>
+  <si>
+    <t>cheng</t>
+  </si>
+  <si>
+    <t>CHENG@qq.com</t>
+  </si>
+  <si>
+    <t>1234567</t>
   </si>
 </sst>
 </file>
@@ -140,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,23 +195,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s" s="0">
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>1234567</t>
+  </si>
+  <si>
+    <t>chengchen</t>
+  </si>
+  <si>
+    <t>HELLO@qq.com</t>
+  </si>
+  <si>
+    <t>576890</t>
+  </si>
+  <si>
+    <t>9a23c9bdd5c5f4be248b180334fd5e61</t>
   </si>
 </sst>
 </file>
@@ -200,7 +212,7 @@
         <v>28</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>29</v>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>username</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>9a23c9bdd5c5f4be248b180334fd5e61</t>
+  </si>
+  <si>
+    <t>d37d076b99d7a439a2e7714a8b9ece68</t>
+  </si>
+  <si>
+    <t>37ddd2d70d5d58204241eee0e37d33bf</t>
   </si>
 </sst>
 </file>
@@ -161,7 +167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -192,7 +198,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>
@@ -204,26 +210,6 @@
         <v>10</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s" s="0">
         <v>11</v>
       </c>
     </row>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -35,7 +35,7 @@
     <t>CHENGCHEN</t>
   </si>
   <si>
-    <t>a7ec79adb862fc8c59c4907b999158cd</t>
+    <t>37ddd2d70d5d58204241eee0e37d33bf</t>
   </si>
   <si>
     <t>chen@qq.com</t>
@@ -50,79 +50,19 @@
     <t>gold</t>
   </si>
   <si>
-    <t>01d606e4ea5dd1aa1e54d6fc48b45a21</t>
+    <t>cccdkjf</t>
   </si>
   <si>
-    <t>0315dcffde420e5838f48a30254dd8fd</t>
+    <t>d8ed6d83d6db301eeccf6145a6f84674</t>
   </si>
   <si>
-    <t>9fb2867d1f75c51e868ced7f06a1ea1d</t>
+    <t>hdka@cckdal</t>
   </si>
   <si>
-    <t>57650189a06aaa2be7cd5dde30ba694d</t>
-  </si>
-  <si>
-    <t>771b04972e9b08016afebeebe42f195b</t>
-  </si>
-  <si>
-    <t>fbdf88cf331e676d90634347ed4464cd</t>
-  </si>
-  <si>
-    <t>d9ed4b5e96dcb5789b39da080addb5a1</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>@cc1234YNU</t>
-  </si>
-  <si>
-    <t>12435</t>
+    <t>12342</t>
   </si>
   <si>
     <t>2021-12-23</t>
-  </si>
-  <si>
-    <t>24c6f83e749172c580ff5ff8cfe31ccf</t>
-  </si>
-  <si>
-    <t>24d5b9ec1eac55bbbb0f9cc604cc3491</t>
-  </si>
-  <si>
-    <t>1e92bc533e921befb81a7d6ab764ea9a</t>
-  </si>
-  <si>
-    <t>80d1587c9ff23ad863e67bac1923fa9c</t>
-  </si>
-  <si>
-    <t>9cf41a44c4f0631f3422c0a9c9bed659</t>
-  </si>
-  <si>
-    <t>cheng</t>
-  </si>
-  <si>
-    <t>CHENG@qq.com</t>
-  </si>
-  <si>
-    <t>1234567</t>
-  </si>
-  <si>
-    <t>chengchen</t>
-  </si>
-  <si>
-    <t>HELLO@qq.com</t>
-  </si>
-  <si>
-    <t>576890</t>
-  </si>
-  <si>
-    <t>9a23c9bdd5c5f4be248b180334fd5e61</t>
-  </si>
-  <si>
-    <t>d37d076b99d7a439a2e7714a8b9ece68</t>
-  </si>
-  <si>
-    <t>37ddd2d70d5d58204241eee0e37d33bf</t>
   </si>
 </sst>
 </file>
@@ -167,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -198,7 +138,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>8</v>
@@ -213,6 +153,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -32,37 +32,22 @@
     <t>userLevel</t>
   </si>
   <si>
-    <t>CHENGCHEN</t>
+    <t>chegnchen</t>
   </si>
   <si>
-    <t>37ddd2d70d5d58204241eee0e37d33bf</t>
+    <t>01d606e4ea5dd1aa1e54d6fc48b45a21</t>
   </si>
   <si>
-    <t>chen@qq.com</t>
+    <t>32445qq.com</t>
   </si>
   <si>
-    <t>12345</t>
+    <t>32346578</t>
   </si>
   <si>
-    <t>2024-08-31</t>
+    <t>2021-12-02</t>
   </si>
   <si>
     <t>gold</t>
-  </si>
-  <si>
-    <t>cccdkjf</t>
-  </si>
-  <si>
-    <t>d8ed6d83d6db301eeccf6145a6f84674</t>
-  </si>
-  <si>
-    <t>hdka@cckdal</t>
-  </si>
-  <si>
-    <t>12342</t>
-  </si>
-  <si>
-    <t>2021-12-23</t>
   </si>
 </sst>
 </file>
@@ -107,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,26 +138,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +48,21 @@
   </si>
   <si>
     <t>gold</t>
+  </si>
+  <si>
+    <t>chengchengcch</t>
+  </si>
+  <si>
+    <t>bb978a0a592863ac458e68ae45f1525c</t>
+  </si>
+  <si>
+    <t>1234@qqcom</t>
+  </si>
+  <si>
+    <t>45678</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
   </si>
 </sst>
 </file>
@@ -92,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +153,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -48,21 +48,6 @@
   </si>
   <si>
     <t>gold</t>
-  </si>
-  <si>
-    <t>chengchengcch</t>
-  </si>
-  <si>
-    <t>bb978a0a592863ac458e68ae45f1525c</t>
-  </si>
-  <si>
-    <t>1234@qqcom</t>
-  </si>
-  <si>
-    <t>45678</t>
-  </si>
-  <si>
-    <t>2021-12-23</t>
   </si>
 </sst>
 </file>
@@ -107,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,26 +138,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/customers.xlsx
+++ b/customers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -32,22 +32,34 @@
     <t>userLevel</t>
   </si>
   <si>
-    <t>chegnchen</t>
+    <t>CHENGCHEN</t>
+  </si>
+  <si>
+    <t>a7ec79adb862fc8c59c4907b999158cd</t>
+  </si>
+  <si>
+    <t>cheng@qq.com</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>2024-09-05</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>chengchen</t>
   </si>
   <si>
     <t>01d606e4ea5dd1aa1e54d6fc48b45a21</t>
   </si>
   <si>
-    <t>32445qq.com</t>
+    <t>CHEN@qq.com</t>
   </si>
   <si>
-    <t>32346578</t>
-  </si>
-  <si>
-    <t>2021-12-02</t>
-  </si>
-  <si>
-    <t>gold</t>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -92,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -138,6 +150,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
